--- a/01_Tasks/Docs/Lab01/Lab01_ReviewReport.xlsx
+++ b/01_Tasks/Docs/Lab01/Lab01_ReviewReport.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/e1e6198e3a117515/Desktop/FACULTATE SEM 6/VVSS/CheckLists/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GIT\VVSS\01_Tasks\Docs\Lab01\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="54" documentId="11_7791EF14C91B5AEA3FBE60D92C7B2B6EEF49B2DF" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9CF5AE3A-87A9-4671-A964-CF3E83290183}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42CF1C41-9CC8-45A0-8B5E-765A84E4A79A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" tabRatio="650" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="120">
   <si>
     <t>Document  Title:</t>
   </si>
@@ -65,21 +65,6 @@
     <t>Effort to review document (hours):</t>
   </si>
   <si>
-    <t>Author Name:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Author Name: </t>
-  </si>
-  <si>
-    <t>Popescu Ionel</t>
-  </si>
-  <si>
-    <t>Georgescu Anca</t>
-  </si>
-  <si>
-    <t>Firicescu George</t>
-  </si>
-  <si>
     <t>Requirements Document</t>
   </si>
   <si>
@@ -104,9 +89,6 @@
     <t>Student 2:</t>
   </si>
   <si>
-    <t>Student 3:</t>
-  </si>
-  <si>
     <t>Echipa</t>
   </si>
   <si>
@@ -204,13 +186,223 @@
   </si>
   <si>
     <t>DateService, 8</t>
+  </si>
+  <si>
+    <t>R01</t>
+  </si>
+  <si>
+    <t>R02</t>
+  </si>
+  <si>
+    <t>R03</t>
+  </si>
+  <si>
+    <t>R04</t>
+  </si>
+  <si>
+    <t>R05</t>
+  </si>
+  <si>
+    <t>R06</t>
+  </si>
+  <si>
+    <t>R07</t>
+  </si>
+  <si>
+    <t>F03</t>
+  </si>
+  <si>
+    <t>What info? Specify them</t>
+  </si>
+  <si>
+    <t>We can see the requirements</t>
+  </si>
+  <si>
+    <t>F01-F05</t>
+  </si>
+  <si>
+    <t>They seem to be correct</t>
+  </si>
+  <si>
+    <t>There is no sign of system initialization</t>
+  </si>
+  <si>
+    <t>The requirements do not include methods definitions</t>
+  </si>
+  <si>
+    <t>What the user want is somewhat clear.</t>
+  </si>
+  <si>
+    <t>. Informatiile sunt preluate dintr-un fisier binar sau text</t>
+  </si>
+  <si>
+    <t>C01</t>
+  </si>
+  <si>
+    <t>C02</t>
+  </si>
+  <si>
+    <t>C03</t>
+  </si>
+  <si>
+    <t>C04</t>
+  </si>
+  <si>
+    <t>C05</t>
+  </si>
+  <si>
+    <t>C06</t>
+  </si>
+  <si>
+    <t>C07</t>
+  </si>
+  <si>
+    <t>C08</t>
+  </si>
+  <si>
+    <t>C09</t>
+  </si>
+  <si>
+    <t>C10</t>
+  </si>
+  <si>
+    <t>C11</t>
+  </si>
+  <si>
+    <t>C12</t>
+  </si>
+  <si>
+    <t>NewEditController - 147</t>
+  </si>
+  <si>
+    <t>We always have to add the new task to the list</t>
+  </si>
+  <si>
+    <t>Martin Fabian-Ionuț</t>
+  </si>
+  <si>
+    <t>idem</t>
+  </si>
+  <si>
+    <t>Notificator - 28</t>
+  </si>
+  <si>
+    <t>This while has no break</t>
+  </si>
+  <si>
+    <t>Try without catch</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>TaskIO - 68</t>
+  </si>
+  <si>
+    <t>TaskIO - 42</t>
+  </si>
+  <si>
+    <t>It may cause errors in the absence of a catch, at the opening of the file to write the output</t>
+  </si>
+  <si>
+    <t>There is a lack of error handling system in place</t>
+  </si>
+  <si>
+    <t>Good naming, no problem</t>
+  </si>
+  <si>
+    <t>No, they seem fine</t>
+  </si>
+  <si>
+    <t>Ok</t>
+  </si>
+  <si>
+    <t>Matei Otniel-Daniel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Martin Fabian-Ionuț, Matei Otniel-Daniel </t>
+  </si>
+  <si>
+    <t>Sonar lint</t>
+  </si>
+  <si>
+    <t>A01</t>
+  </si>
+  <si>
+    <t>A02</t>
+  </si>
+  <si>
+    <t>A03</t>
+  </si>
+  <si>
+    <t>A04</t>
+  </si>
+  <si>
+    <t>A05</t>
+  </si>
+  <si>
+    <t>A06</t>
+  </si>
+  <si>
+    <t>A07</t>
+  </si>
+  <si>
+    <t>A08</t>
+  </si>
+  <si>
+    <t>A09</t>
+  </si>
+  <si>
+    <t>A10</t>
+  </si>
+  <si>
+    <t>It has the MVC pattern, but it is chaotic and some classes don't fit</t>
+  </si>
+  <si>
+    <t>Why is the Notificator inside the Controller folder? Why is the TaskIO inside the service folder?</t>
+  </si>
+  <si>
+    <t>The interface present the user with the posibility to add, update, delete tasks, choose intervals, filter.</t>
+  </si>
+  <si>
+    <t>0.5</t>
+  </si>
+  <si>
+    <t>1.5H</t>
+  </si>
+  <si>
+    <t>No custom exception/error handlers defined</t>
+  </si>
+  <si>
+    <t>As mentioned before, MVC</t>
+  </si>
+  <si>
+    <t>Antiexamples: Controller, NewEditController (what do you do here? Edit? Add?)</t>
+  </si>
+  <si>
+    <t>No description/specification provided</t>
+  </si>
+  <si>
+    <t>There are no roles (except create and number 1)</t>
+  </si>
+  <si>
+    <t>The properties defined in the diagram appear also in code</t>
+  </si>
+  <si>
+    <t>Alligned with design and requirements</t>
+  </si>
+  <si>
+    <t>Task - 20</t>
+  </si>
+  <si>
+    <t>No typo warnings, but bad naming</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -281,11 +473,18 @@
     </font>
     <font>
       <b/>
-      <i/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -315,7 +514,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -363,19 +562,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
@@ -388,7 +574,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -418,6 +604,9 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -430,39 +619,24 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="17" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -770,10 +944,10 @@
   <sheetPr>
     <tabColor theme="7" tint="0.59999389629810485"/>
   </sheetPr>
-  <dimension ref="A1:J27"/>
+  <dimension ref="A1:J26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -793,148 +967,187 @@
       <c r="B1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="I1" s="22"/>
-      <c r="J1" s="22"/>
+      <c r="H1" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="I1" s="23"/>
+      <c r="J1" s="23"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B2" s="23" t="s">
-        <v>19</v>
-      </c>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23"/>
+      <c r="B2" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
       <c r="H2" s="3"/>
       <c r="I2" s="19" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="J2" s="17" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H3" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="I3" s="17"/>
-      <c r="J3" s="17"/>
+        <v>15</v>
+      </c>
+      <c r="I3" s="31" t="s">
+        <v>80</v>
+      </c>
+      <c r="J3" s="17">
+        <v>234</v>
+      </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C4" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="24" t="s">
-        <v>14</v>
-      </c>
-      <c r="E4" s="24"/>
+      <c r="D4" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="25"/>
       <c r="H4" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="I4" s="3"/>
-      <c r="J4" s="3"/>
+        <v>16</v>
+      </c>
+      <c r="I4" s="31" t="s">
+        <v>93</v>
+      </c>
+      <c r="J4" s="17">
+        <v>234</v>
+      </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C5" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5" s="25" t="s">
-        <v>13</v>
-      </c>
-      <c r="E5" s="26"/>
-      <c r="H5" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="I5" s="3"/>
-      <c r="J5" s="3"/>
+      <c r="B5" s="8"/>
+      <c r="C5" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="D5" s="22" t="s">
+        <v>94</v>
+      </c>
+      <c r="E5" s="22"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B6" s="8"/>
       <c r="C6" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="D6" s="21"/>
-      <c r="E6" s="21"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C7" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="D7" s="21"/>
-      <c r="E7" s="21"/>
+      <c r="D6" s="32">
+        <v>45369</v>
+      </c>
+      <c r="E6" s="22"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B8" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="E8" s="14" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B9" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="C9" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D9" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="E9" s="14" t="s">
-        <v>7</v>
+      <c r="B9" s="3">
+        <v>1</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D9" s="30" t="s">
+        <v>57</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B10" s="3">
-        <v>1</v>
-      </c>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="2"/>
+        <f>B9+1</f>
+        <v>2</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B11" s="3">
-        <f>B10+1</f>
-        <v>2</v>
-      </c>
-      <c r="C11" s="1"/>
+        <f t="shared" ref="B11:B24" si="0">B10+1</f>
+        <v>3</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>52</v>
+      </c>
       <c r="D11" s="1"/>
-      <c r="E11" s="2"/>
+      <c r="E11" s="2" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B12" s="3">
-        <f t="shared" ref="B12:B25" si="0">B11+1</f>
-        <v>3</v>
-      </c>
-      <c r="C12" s="1"/>
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>53</v>
+      </c>
       <c r="D12" s="1"/>
-      <c r="E12" s="2"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="E12" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="B13" s="3">
         <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="C13" s="1"/>
+        <v>5</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>54</v>
+      </c>
       <c r="D13" s="1"/>
-      <c r="E13" s="2"/>
+      <c r="E13" s="2" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B14" s="3">
         <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="C14" s="1"/>
+        <v>6</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>55</v>
+      </c>
       <c r="D14" s="1"/>
-      <c r="E14" s="2"/>
+      <c r="E14" s="2" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B15" s="3">
         <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
+        <v>7</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D15" t="s">
+        <v>65</v>
+      </c>
       <c r="E15" s="2"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B16" s="3">
         <f t="shared" si="0"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
@@ -943,16 +1156,16 @@
     <row r="17" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B17" s="3">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="2"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="15"/>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B18" s="3">
         <f t="shared" si="0"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
@@ -961,7 +1174,7 @@
     <row r="19" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B19" s="3">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C19" s="3"/>
       <c r="D19" s="3"/>
@@ -970,7 +1183,7 @@
     <row r="20" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B20" s="3">
         <f t="shared" si="0"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C20" s="3"/>
       <c r="D20" s="3"/>
@@ -979,7 +1192,7 @@
     <row r="21" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B21" s="3">
         <f t="shared" si="0"/>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C21" s="3"/>
       <c r="D21" s="3"/>
@@ -988,7 +1201,7 @@
     <row r="22" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B22" s="3">
         <f t="shared" si="0"/>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C22" s="3"/>
       <c r="D22" s="3"/>
@@ -997,7 +1210,7 @@
     <row r="23" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B23" s="3">
         <f t="shared" si="0"/>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C23" s="3"/>
       <c r="D23" s="3"/>
@@ -1006,37 +1219,30 @@
     <row r="24" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B24" s="3">
         <f t="shared" si="0"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C24" s="3"/>
       <c r="D24" s="3"/>
       <c r="E24" s="15"/>
     </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B25" s="3">
-        <f t="shared" si="0"/>
-        <v>16</v>
-      </c>
-      <c r="C25" s="3"/>
-      <c r="D25" s="3"/>
-      <c r="E25" s="15"/>
-    </row>
-    <row r="27" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="C27" s="11" t="s">
+    <row r="26" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C26" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="D27" s="12"/>
-      <c r="E27" s="1"/>
+      <c r="D26" s="12"/>
+      <c r="E26" s="1" t="s">
+        <v>109</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="D7:E7"/>
+  <mergeCells count="5">
+    <mergeCell ref="D6:E6"/>
     <mergeCell ref="H1:J1"/>
     <mergeCell ref="B2:E2"/>
     <mergeCell ref="D4:E4"/>
-    <mergeCell ref="D6:E6"/>
     <mergeCell ref="D5:E5"/>
   </mergeCells>
+  <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -1047,10 +1253,10 @@
   <sheetPr>
     <tabColor theme="9" tint="0.59999389629810485"/>
   </sheetPr>
-  <dimension ref="A1:J28"/>
+  <dimension ref="A1:J27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1069,184 +1275,231 @@
       <c r="B1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="I1" s="22"/>
-      <c r="J1" s="22"/>
+      <c r="H1" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="I1" s="23"/>
+      <c r="J1" s="23"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B2" s="23" t="s">
-        <v>18</v>
-      </c>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23"/>
+      <c r="B2" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
       <c r="H2" s="3"/>
       <c r="I2" s="19" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="J2" s="17" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H3" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="I3" s="17"/>
-      <c r="J3" s="17"/>
+        <v>15</v>
+      </c>
+      <c r="I3" s="31" t="s">
+        <v>80</v>
+      </c>
+      <c r="J3" s="17">
+        <v>234</v>
+      </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C4" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="27" t="s">
-        <v>15</v>
-      </c>
-      <c r="E4" s="27"/>
+      <c r="D4" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="26"/>
       <c r="H4" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="I4" s="3"/>
-      <c r="J4" s="3"/>
+        <v>16</v>
+      </c>
+      <c r="I4" s="31" t="s">
+        <v>93</v>
+      </c>
+      <c r="J4" s="17">
+        <v>234</v>
+      </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C5" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" s="28" t="s">
-        <v>12</v>
-      </c>
-      <c r="E5" s="29"/>
-      <c r="H5" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="I5" s="3"/>
-      <c r="J5" s="3"/>
+      <c r="B5" s="8"/>
+      <c r="C5" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="D5" s="22" t="s">
+        <v>94</v>
+      </c>
+      <c r="E5" s="22"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B6" s="8"/>
       <c r="C6" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="D6" s="32">
+        <v>45369</v>
+      </c>
+      <c r="E6" s="22"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B8" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="E8" s="10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="B9" s="3">
+        <v>1</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="B10" s="3">
+        <f>B9+1</f>
         <v>2</v>
       </c>
-      <c r="D6" s="21"/>
-      <c r="E6" s="21"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C7" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="D7" s="21"/>
-      <c r="E7" s="21"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B9" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="C9" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D9" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="E9" s="10" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B10" s="3">
-        <v>1</v>
-      </c>
-      <c r="C10" s="1"/>
+      <c r="C10" s="1" t="s">
+        <v>97</v>
+      </c>
       <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="E10" s="2" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="B11" s="3">
-        <f>B10+1</f>
-        <v>2</v>
-      </c>
-      <c r="C11" s="1"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
+        <f t="shared" ref="B11:B25" si="0">B10+1</f>
+        <v>3</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D11" s="1"/>
+      <c r="E11" s="2" t="s">
+        <v>108</v>
+      </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B12" s="3">
-        <f t="shared" ref="B12:B26" si="0">B11+1</f>
-        <v>3</v>
-      </c>
-      <c r="C12" s="1"/>
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>99</v>
+      </c>
       <c r="D12" s="1"/>
-      <c r="E12" s="2"/>
+      <c r="E12" s="2" t="s">
+        <v>117</v>
+      </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B13" s="3">
         <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="2"/>
+        <v>5</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2" t="s">
+        <v>111</v>
+      </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B14" s="3">
         <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="C14" s="1"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="D14" s="1"/>
+      <c r="E14" s="2" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="B15" s="3">
         <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="2"/>
+        <v>7</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2" t="s">
+        <v>113</v>
+      </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B16" s="3">
         <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="C16" s="1"/>
+        <v>8</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>103</v>
+      </c>
       <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-    </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="E16" s="2" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" ht="30" x14ac:dyDescent="0.25">
       <c r="B17" s="3">
         <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="C17" s="1"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-    </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="D17" s="1"/>
+      <c r="E17" s="2" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" ht="30" x14ac:dyDescent="0.25">
       <c r="B18" s="3">
         <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="2"/>
+        <v>10</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2" t="s">
+        <v>116</v>
+      </c>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B19" s="3">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C19" s="1"/>
-      <c r="D19" s="2"/>
+      <c r="D19" s="1"/>
       <c r="E19" s="2"/>
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B20" s="3">
         <f t="shared" si="0"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
@@ -1255,7 +1508,7 @@
     <row r="21" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B21" s="3">
         <f t="shared" si="0"/>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
@@ -1264,7 +1517,7 @@
     <row r="22" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B22" s="3">
         <f t="shared" si="0"/>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
@@ -1273,7 +1526,7 @@
     <row r="23" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B23" s="3">
         <f t="shared" si="0"/>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
@@ -1282,7 +1535,7 @@
     <row r="24" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B24" s="3">
         <f t="shared" si="0"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
@@ -1291,37 +1544,30 @@
     <row r="25" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B25" s="3">
         <f t="shared" si="0"/>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
       <c r="E25" s="2"/>
     </row>
-    <row r="26" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B26" s="3">
-        <f t="shared" si="0"/>
-        <v>17</v>
-      </c>
-      <c r="C26" s="1"/>
-      <c r="D26" s="1"/>
-      <c r="E26" s="2"/>
-    </row>
-    <row r="28" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="C28" s="11" t="s">
+    <row r="27" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C27" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="D28" s="12"/>
-      <c r="E28" s="1"/>
+      <c r="D27" s="12"/>
+      <c r="E27" s="1">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="5">
     <mergeCell ref="H1:J1"/>
     <mergeCell ref="B2:E2"/>
     <mergeCell ref="D4:E4"/>
+    <mergeCell ref="D5:E5"/>
     <mergeCell ref="D6:E6"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="D5:E5"/>
   </mergeCells>
+  <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -1332,10 +1578,10 @@
   <sheetPr>
     <tabColor theme="3" tint="0.59999389629810485"/>
   </sheetPr>
-  <dimension ref="A1:J32"/>
+  <dimension ref="A1:J31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1355,202 +1601,271 @@
       <c r="B1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="I1" s="22"/>
-      <c r="J1" s="22"/>
+      <c r="H1" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="I1" s="23"/>
+      <c r="J1" s="23"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B2" s="23" t="s">
-        <v>17</v>
-      </c>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23"/>
+      <c r="B2" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
       <c r="H2" s="3"/>
       <c r="I2" s="19" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="J2" s="17" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H3" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="I3" s="17"/>
-      <c r="J3" s="17"/>
+        <v>15</v>
+      </c>
+      <c r="I3" s="31" t="s">
+        <v>80</v>
+      </c>
+      <c r="J3" s="17">
+        <v>234</v>
+      </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C4" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="30" t="s">
+      <c r="D4" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="27"/>
+      <c r="H4" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="E4" s="30"/>
-      <c r="H4" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="I4" s="3"/>
-      <c r="J4" s="3"/>
+      <c r="I4" s="31" t="s">
+        <v>93</v>
+      </c>
+      <c r="J4" s="17">
+        <v>234</v>
+      </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C5" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5" s="31" t="s">
-        <v>11</v>
-      </c>
-      <c r="E5" s="32"/>
-      <c r="H5" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="I5" s="3"/>
-      <c r="J5" s="3"/>
+      <c r="B5" s="8"/>
+      <c r="C5" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="D5" s="22" t="s">
+        <v>94</v>
+      </c>
+      <c r="E5" s="22"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B6" s="8"/>
       <c r="C6" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="D6" s="21"/>
-      <c r="E6" s="21"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C7" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="D7" s="21"/>
-      <c r="E7" s="21"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B9" s="10" t="s">
+      <c r="D6" s="32">
+        <v>45369</v>
+      </c>
+      <c r="E6" s="22"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B8" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="C9" s="10" t="s">
+      <c r="C8" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="D9" s="10" t="s">
+      <c r="D8" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="E9" s="10" t="s">
+      <c r="E8" s="10" t="s">
         <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="B9" s="3">
+        <v>1</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B10" s="3">
-        <v>1</v>
-      </c>
-      <c r="C10" s="1"/>
-      <c r="D10" s="2"/>
+        <f>B9+1</f>
+        <v>2</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>81</v>
+      </c>
       <c r="E10" s="2"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B11" s="3">
-        <f>B10+1</f>
-        <v>2</v>
-      </c>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="2"/>
+        <f t="shared" ref="B11:B29" si="0">B10+1</f>
+        <v>3</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>83</v>
+      </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B12" s="3">
-        <f t="shared" ref="B12:B30" si="0">B11+1</f>
-        <v>3</v>
-      </c>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="2"/>
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B13" s="3">
         <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="C13" s="1"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
+        <v>5</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B14" s="3">
         <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="C14" s="1"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="B15" s="3">
         <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="C15" s="1"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="B16" s="3">
         <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="C16" s="1"/>
+        <v>8</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>73</v>
+      </c>
       <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
+      <c r="E16" s="2" t="s">
+        <v>89</v>
+      </c>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B17" s="3">
         <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="C17" s="1"/>
+        <v>9</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>74</v>
+      </c>
       <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
+      <c r="E17" s="2" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B18" s="3">
         <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="C18" s="1"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
+        <v>10</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D18" s="1"/>
+      <c r="E18" s="2" t="s">
+        <v>91</v>
+      </c>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B19" s="3">
         <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
-      <c r="E19" s="2"/>
+        <v>11</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>119</v>
+      </c>
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B20" s="3">
         <f t="shared" si="0"/>
-        <v>11</v>
-      </c>
-      <c r="C20" s="1"/>
-      <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
+        <v>12</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D20" s="1"/>
+      <c r="E20" s="2" t="s">
+        <v>92</v>
+      </c>
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B21" s="3">
         <f t="shared" si="0"/>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
+      <c r="D21" s="2"/>
       <c r="E21" s="2"/>
     </row>
     <row r="22" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B22" s="3">
         <f t="shared" si="0"/>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C22" s="1"/>
       <c r="D22" s="2"/>
@@ -1559,7 +1874,7 @@
     <row r="23" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B23" s="3">
         <f t="shared" si="0"/>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C23" s="1"/>
       <c r="D23" s="2"/>
@@ -1568,7 +1883,7 @@
     <row r="24" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B24" s="3">
         <f t="shared" si="0"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C24" s="1"/>
       <c r="D24" s="2"/>
@@ -1577,34 +1892,34 @@
     <row r="25" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B25" s="3">
         <f t="shared" si="0"/>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C25" s="1"/>
-      <c r="D25" s="2"/>
+      <c r="D25" s="1"/>
       <c r="E25" s="2"/>
     </row>
     <row r="26" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B26" s="3">
         <f t="shared" si="0"/>
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C26" s="1"/>
-      <c r="D26" s="1"/>
-      <c r="E26" s="2"/>
+      <c r="D26" s="2"/>
+      <c r="E26" s="1"/>
     </row>
     <row r="27" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B27" s="3">
         <f t="shared" si="0"/>
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C27" s="1"/>
       <c r="D27" s="2"/>
-      <c r="E27" s="1"/>
+      <c r="E27" s="2"/>
     </row>
     <row r="28" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B28" s="3">
         <f t="shared" si="0"/>
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C28" s="1"/>
       <c r="D28" s="2"/>
@@ -1613,37 +1928,30 @@
     <row r="29" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B29" s="3">
         <f t="shared" si="0"/>
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C29" s="1"/>
       <c r="D29" s="2"/>
       <c r="E29" s="2"/>
     </row>
-    <row r="30" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B30" s="3">
-        <f t="shared" si="0"/>
-        <v>21</v>
-      </c>
-      <c r="C30" s="1"/>
-      <c r="D30" s="2"/>
-      <c r="E30" s="2"/>
-    </row>
-    <row r="32" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="C32" s="11" t="s">
+    <row r="31" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C31" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="D32" s="12"/>
-      <c r="E32" s="1"/>
+      <c r="D31" s="12"/>
+      <c r="E31" s="33" t="s">
+        <v>110</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="D7:E7"/>
+  <mergeCells count="5">
+    <mergeCell ref="D6:E6"/>
     <mergeCell ref="H1:J1"/>
     <mergeCell ref="D4:E4"/>
-    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="D5:E5"/>
     <mergeCell ref="B2:E2"/>
-    <mergeCell ref="D5:E5"/>
   </mergeCells>
+  <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -1657,7 +1965,7 @@
   <dimension ref="A1:J32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+      <selection activeCell="H30" sqref="H30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1678,65 +1986,74 @@
       <c r="B1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="I1" s="22"/>
-      <c r="J1" s="22"/>
+      <c r="H1" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="I1" s="23"/>
+      <c r="J1" s="23"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B2" s="23" t="s">
-        <v>31</v>
-      </c>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23"/>
+      <c r="B2" s="24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
       <c r="H2" s="3"/>
       <c r="I2" s="19" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="J2" s="17" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H3" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="I3" s="17"/>
-      <c r="J3" s="17"/>
+        <v>15</v>
+      </c>
+      <c r="I3" s="31" t="s">
+        <v>80</v>
+      </c>
+      <c r="J3" s="17">
+        <v>234</v>
+      </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C4" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="D4" s="30"/>
-      <c r="E4" s="30"/>
+        <v>19</v>
+      </c>
+      <c r="D4" s="27" t="s">
+        <v>95</v>
+      </c>
+      <c r="E4" s="27"/>
       <c r="H4" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="I4" s="3"/>
-      <c r="J4" s="3"/>
+        <v>16</v>
+      </c>
+      <c r="I4" s="31" t="s">
+        <v>93</v>
+      </c>
+      <c r="J4" s="17">
+        <v>234</v>
+      </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C5" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="21"/>
-      <c r="E5" s="21"/>
-      <c r="H5" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="I5" s="3"/>
-      <c r="J5" s="3"/>
+      <c r="D5" s="22" t="s">
+        <v>94</v>
+      </c>
+      <c r="E5" s="22"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B6" s="8"/>
       <c r="C6" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="D6" s="21"/>
-      <c r="E6" s="21"/>
+      <c r="D6" s="32">
+        <v>45369</v>
+      </c>
+      <c r="E6" s="22"/>
       <c r="F6" s="20"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
@@ -1744,16 +2061,16 @@
         <v>4</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="E9" s="10" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="F9" s="10" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="30" x14ac:dyDescent="0.25">
@@ -1761,16 +2078,16 @@
         <v>1</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="D10" s="35" t="s">
-        <v>33</v>
+        <v>28</v>
+      </c>
+      <c r="D10" s="21" t="s">
+        <v>27</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="30" x14ac:dyDescent="0.25">
@@ -1779,16 +2096,16 @@
         <v>2</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="D11" s="35" t="s">
-        <v>38</v>
+        <v>31</v>
+      </c>
+      <c r="D11" s="21" t="s">
+        <v>32</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="30" x14ac:dyDescent="0.25">
@@ -1797,16 +2114,16 @@
         <v>3</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="D12" s="35" t="s">
-        <v>41</v>
+        <v>36</v>
+      </c>
+      <c r="D12" s="21" t="s">
+        <v>35</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="30" x14ac:dyDescent="0.25">
@@ -1815,16 +2132,16 @@
         <v>4</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D13" s="35" t="s">
-        <v>41</v>
+        <v>37</v>
+      </c>
+      <c r="D13" s="21" t="s">
+        <v>35</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="30" x14ac:dyDescent="0.25">
@@ -1833,16 +2150,16 @@
         <v>5</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="D14" s="35" t="s">
-        <v>45</v>
+        <v>40</v>
+      </c>
+      <c r="D14" s="21" t="s">
+        <v>39</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="30" x14ac:dyDescent="0.25">
@@ -1851,16 +2168,16 @@
         <v>6</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="D15" s="35" t="s">
-        <v>48</v>
+        <v>43</v>
+      </c>
+      <c r="D15" s="21" t="s">
+        <v>42</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="30" x14ac:dyDescent="0.25">
@@ -1869,16 +2186,16 @@
         <v>7</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="D16" s="35" t="s">
-        <v>48</v>
+        <v>44</v>
+      </c>
+      <c r="D16" s="21" t="s">
+        <v>42</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
     </row>
     <row r="17" spans="2:6" ht="30" x14ac:dyDescent="0.25">
@@ -1887,16 +2204,16 @@
         <v>8</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="D17" s="35" t="s">
-        <v>52</v>
+        <v>49</v>
+      </c>
+      <c r="D17" s="21" t="s">
+        <v>46</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.25">
@@ -2030,12 +2347,14 @@
       <c r="F30" s="2"/>
     </row>
     <row r="32" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="C32" s="33" t="s">
-        <v>32</v>
-      </c>
-      <c r="D32" s="34"/>
-      <c r="E32" s="34"/>
-      <c r="F32" s="18"/>
+      <c r="C32" s="28" t="s">
+        <v>26</v>
+      </c>
+      <c r="D32" s="29"/>
+      <c r="E32" s="29"/>
+      <c r="F32" s="18" t="s">
+        <v>109</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="6">
